--- a/config_6.8/game_module_config_cjj.xlsx
+++ b/config_6.8/game_module_config_cjj.xlsx
@@ -11,7 +11,7 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$335</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$336</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3253,7 +3253,7 @@
     <t>act_ty_ldfd</t>
   </si>
   <si>
-    <t>幸运福袋</t>
+    <t>端午福袋</t>
   </si>
   <si>
     <t>Act_ty_LDFDManager</t>
@@ -3803,7 +3803,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3890,14 +3890,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3918,20 +3941,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3941,15 +3950,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4002,8 +4003,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4017,13 +4019,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -4032,9 +4027,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4044,15 +4038,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4121,7 +4108,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4133,13 +4168,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4151,31 +4210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4187,19 +4222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4211,37 +4234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4253,37 +4252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4295,7 +4264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4330,15 +4305,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4350,6 +4316,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4378,6 +4355,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4389,15 +4384,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4416,17 +4402,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4435,10 +4410,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4447,19 +4422,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4468,13 +4443,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4486,100 +4461,100 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4743,9 +4718,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5078,11 +5050,11 @@
   <dimension ref="A1:AJ336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D313" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C279" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E340" sqref="E340"/>
+      <selection pane="bottomRight" activeCell="H288" sqref="H288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12402,13 +12374,13 @@
         <v>834</v>
       </c>
       <c r="E288" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" s="36" t="s">
         <v>721</v>
@@ -13420,7 +13392,7 @@
       <c r="G322" s="5">
         <v>1</v>
       </c>
-      <c r="I322" s="56">
+      <c r="I322" s="55">
         <v>44354</v>
       </c>
     </row>
@@ -13700,7 +13672,7 @@
       <c r="G333">
         <v>1</v>
       </c>
-      <c r="I333" s="56">
+      <c r="I333" s="55">
         <v>44354</v>
       </c>
     </row>
@@ -13757,13 +13729,13 @@
       <c r="A336" s="5">
         <v>335</v>
       </c>
-      <c r="B336" s="55" t="s">
+      <c r="B336" s="52" t="s">
         <v>982</v>
       </c>
       <c r="C336" t="s">
         <v>983</v>
       </c>
-      <c r="D336" s="55" t="s">
+      <c r="D336" s="52" t="s">
         <v>984</v>
       </c>
       <c r="E336">
@@ -13775,12 +13747,12 @@
       <c r="G336">
         <v>1</v>
       </c>
-      <c r="I336" s="57">
+      <c r="I336" s="56">
         <v>44415</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H335">
+  <autoFilter ref="A1:H336">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_6.8/game_module_config_cjj.xlsx
+++ b/config_6.8/game_module_config_cjj.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="985">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3571,7 +3571,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_018</t>
+    <t>sys_act_base_style/sys_act_base_weekly_019</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3679,32 +3679,10 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>龙腾祈福</t>
+    <t>祈福有礼</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>021年4月12日 23:59:59</t>
-    </r>
   </si>
   <si>
     <t>act_ty_gifts</t>
@@ -3798,10 +3776,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3899,6 +3877,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3912,15 +3905,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3934,7 +3921,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3949,16 +3952,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3972,10 +3968,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3987,31 +3991,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4019,9 +3998,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4114,7 +4092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4126,7 +4104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4138,19 +4116,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4168,7 +4146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4180,37 +4158,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4228,12 +4182,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4246,19 +4194,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4276,7 +4254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4320,13 +4298,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4348,9 +4330,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4360,30 +4344,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4399,6 +4359,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4422,139 +4400,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4721,6 +4699,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -5050,11 +5031,11 @@
   <dimension ref="A1:AJ336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C282" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H288" sqref="H288"/>
+      <selection pane="bottomRight" activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13540,16 +13521,16 @@
         <v>957</v>
       </c>
       <c r="E328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G328">
-        <v>0</v>
-      </c>
-      <c r="I328" s="18" t="s">
-        <v>958</v>
+        <v>1</v>
+      </c>
+      <c r="I328" s="56">
+        <v>44355</v>
       </c>
     </row>
     <row r="329" ht="16.5" spans="1:9">
@@ -13557,25 +13538,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="51" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C329" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
+        <v>959</v>
+      </c>
+      <c r="E329" s="5">
+        <v>0</v>
+      </c>
+      <c r="F329" s="5">
+        <v>0</v>
+      </c>
+      <c r="G329" s="5">
+        <v>0</v>
+      </c>
+      <c r="I329" s="31" t="s">
         <v>960</v>
-      </c>
-      <c r="E329" s="5">
-        <v>1</v>
-      </c>
-      <c r="F329" s="5">
-        <v>1</v>
-      </c>
-      <c r="G329" s="5">
-        <v>1</v>
-      </c>
-      <c r="I329" s="31" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="330" ht="16.5" spans="1:9">
@@ -13583,22 +13564,22 @@
         <v>329</v>
       </c>
       <c r="B330" s="51" t="s">
+        <v>961</v>
+      </c>
+      <c r="C330" s="31" t="s">
         <v>962</v>
       </c>
-      <c r="C330" s="31" t="s">
+      <c r="E330" s="5">
+        <v>0</v>
+      </c>
+      <c r="F330" s="5">
+        <v>0</v>
+      </c>
+      <c r="G330" s="5">
+        <v>0</v>
+      </c>
+      <c r="I330" s="31" t="s">
         <v>963</v>
-      </c>
-      <c r="E330" s="5">
-        <v>1</v>
-      </c>
-      <c r="F330" s="5">
-        <v>1</v>
-      </c>
-      <c r="G330" s="5">
-        <v>1</v>
-      </c>
-      <c r="I330" s="31" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="331" ht="16.5" spans="1:9">
@@ -13606,25 +13587,25 @@
         <v>330</v>
       </c>
       <c r="B331" s="51" t="s">
+        <v>964</v>
+      </c>
+      <c r="C331" s="31" t="s">
         <v>965</v>
       </c>
-      <c r="C331" s="31" t="s">
+      <c r="D331" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="D331" s="18" t="s">
+      <c r="E331" s="5">
+        <v>1</v>
+      </c>
+      <c r="F331" s="5">
+        <v>1</v>
+      </c>
+      <c r="G331" s="5">
+        <v>1</v>
+      </c>
+      <c r="I331" s="31" t="s">
         <v>967</v>
-      </c>
-      <c r="E331" s="5">
-        <v>1</v>
-      </c>
-      <c r="F331" s="5">
-        <v>1</v>
-      </c>
-      <c r="G331" s="5">
-        <v>1</v>
-      </c>
-      <c r="I331" s="31" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="332" ht="16.5" spans="1:9">
@@ -13632,25 +13613,25 @@
         <v>331</v>
       </c>
       <c r="B332" s="52" t="s">
+        <v>968</v>
+      </c>
+      <c r="C332" t="s">
         <v>969</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" s="53" t="s">
         <v>970</v>
       </c>
-      <c r="D332" s="53" t="s">
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
         <v>971</v>
-      </c>
-      <c r="E332">
-        <v>1</v>
-      </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-      <c r="I332" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="333" ht="16.5" spans="1:9">
@@ -13658,10 +13639,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="51" t="s">
+        <v>972</v>
+      </c>
+      <c r="C333" t="s">
         <v>973</v>
-      </c>
-      <c r="C333" t="s">
-        <v>974</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -13681,13 +13662,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="51" t="s">
+        <v>974</v>
+      </c>
+      <c r="C334" s="54" t="s">
         <v>975</v>
       </c>
-      <c r="C334" s="54" t="s">
+      <c r="D334" s="18" t="s">
         <v>976</v>
-      </c>
-      <c r="D334" s="18" t="s">
-        <v>977</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -13704,25 +13685,25 @@
         <v>334</v>
       </c>
       <c r="B335" s="52" t="s">
+        <v>977</v>
+      </c>
+      <c r="C335" t="s">
         <v>978</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" s="52" t="s">
         <v>979</v>
       </c>
-      <c r="D335" s="52" t="s">
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="31" t="s">
         <v>980</v>
-      </c>
-      <c r="E335" s="5">
-        <v>0</v>
-      </c>
-      <c r="F335" s="5">
-        <v>0</v>
-      </c>
-      <c r="G335" s="5">
-        <v>0</v>
-      </c>
-      <c r="I335" s="31" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="336" ht="15.75" spans="1:9">
@@ -13730,14 +13711,14 @@
         <v>335</v>
       </c>
       <c r="B336" s="52" t="s">
+        <v>981</v>
+      </c>
+      <c r="C336" t="s">
         <v>982</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" s="52" t="s">
         <v>983</v>
       </c>
-      <c r="D336" s="52" t="s">
-        <v>984</v>
-      </c>
       <c r="E336">
         <v>0</v>
       </c>
@@ -13747,7 +13728,7 @@
       <c r="G336">
         <v>1</v>
       </c>
-      <c r="I336" s="56">
+      <c r="I336" s="57">
         <v>44415</v>
       </c>
     </row>
@@ -13778,7 +13759,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_6.8/game_module_config_cjj.xlsx
+++ b/config_6.8/game_module_config_cjj.xlsx
@@ -3776,10 +3776,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3868,16 +3868,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3892,7 +3922,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3920,6 +3957,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -3928,40 +3970,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3983,14 +3994,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4003,18 +4015,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4086,7 +4086,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4098,49 +4176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,37 +4188,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4200,13 +4212,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4218,37 +4248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4283,32 +4283,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4328,21 +4316,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4366,17 +4360,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4388,10 +4388,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4400,137 +4400,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4704,8 +4704,8 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -5031,11 +5031,11 @@
   <dimension ref="A1:AJ336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C282" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D323" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C320" sqref="C320"/>
+      <selection pane="bottomRight" activeCell="I341" sqref="I341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13720,7 +13720,7 @@
         <v>983</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F336">
         <v>1</v>
@@ -13729,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="57">
-        <v>44415</v>
+        <v>44414</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.8/game_module_config_cjj.xlsx
+++ b/config_6.8/game_module_config_cjj.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="989">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3763,6 +3763,18 @@
     <t>ACTCJDBManager</t>
   </si>
   <si>
+    <t>act_042_xshb</t>
+  </si>
+  <si>
+    <t>限时红包</t>
+  </si>
+  <si>
+    <t>Act_042_XSHBManager</t>
+  </si>
+  <si>
+    <t>长期</t>
+  </si>
+  <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
 (也许你的活动很简单，最好是统一都有一个活动自己的管理器)，这个脚本应该提供以下接口：
 Init 初始化Lua
@@ -3776,10 +3788,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3868,32 +3880,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3906,8 +3901,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3922,21 +3933,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3950,39 +3961,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4002,19 +3985,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4086,7 +4098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4104,7 +4122,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4116,145 +4260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4283,6 +4295,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4297,36 +4324,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4357,15 +4354,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4380,6 +4368,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4388,10 +4400,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4400,37 +4412,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4439,100 +4451,100 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4697,6 +4709,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5028,14 +5043,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ336"/>
+  <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D323" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I341" sqref="I341"/>
+      <selection pane="bottomRight" activeCell="B340" sqref="B340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13373,7 +13388,7 @@
       <c r="G322" s="5">
         <v>1</v>
       </c>
-      <c r="I322" s="55">
+      <c r="I322" s="56">
         <v>44354</v>
       </c>
     </row>
@@ -13529,7 +13544,7 @@
       <c r="G328">
         <v>1</v>
       </c>
-      <c r="I328" s="56">
+      <c r="I328" s="57">
         <v>44355</v>
       </c>
     </row>
@@ -13653,7 +13668,7 @@
       <c r="G333">
         <v>1</v>
       </c>
-      <c r="I333" s="55">
+      <c r="I333" s="56">
         <v>44354</v>
       </c>
     </row>
@@ -13728,8 +13743,34 @@
       <c r="G336">
         <v>1</v>
       </c>
-      <c r="I336" s="57">
+      <c r="I336" s="58">
         <v>44414</v>
+      </c>
+    </row>
+    <row r="337" ht="15.75" spans="1:9">
+      <c r="A337" s="5">
+        <v>336</v>
+      </c>
+      <c r="B337" s="52" t="s">
+        <v>984</v>
+      </c>
+      <c r="C337" t="s">
+        <v>985</v>
+      </c>
+      <c r="D337" s="55" t="s">
+        <v>986</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="I337" t="s">
+        <v>987</v>
       </c>
     </row>
   </sheetData>
@@ -13759,7 +13800,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>
